--- a/Code/Results/Cases/Case_3_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9845677981525748</v>
+        <v>1.017617513053672</v>
       </c>
       <c r="D2">
-        <v>1.005924368060509</v>
+        <v>1.022783080465256</v>
       </c>
       <c r="E2">
-        <v>0.9931828004596249</v>
+        <v>1.018994610517231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039523089409422</v>
+        <v>1.026783235987421</v>
       </c>
       <c r="J2">
-        <v>1.007220089080876</v>
+        <v>1.022830608662421</v>
       </c>
       <c r="K2">
-        <v>1.017301779473816</v>
+        <v>1.025616445634108</v>
       </c>
       <c r="L2">
-        <v>1.004737933897849</v>
+        <v>1.021839173692664</v>
       </c>
       <c r="N2">
-        <v>1.006470046347445</v>
+        <v>1.011711321753229</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9897540726762505</v>
+        <v>1.018673465791158</v>
       </c>
       <c r="D3">
-        <v>1.009631602031985</v>
+        <v>1.023536255111992</v>
       </c>
       <c r="E3">
-        <v>0.9973414400262329</v>
+        <v>1.019891707136632</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040901785922763</v>
+        <v>1.026961500359901</v>
       </c>
       <c r="J3">
-        <v>1.010528003285776</v>
+        <v>1.023521967413908</v>
       </c>
       <c r="K3">
-        <v>1.020142710340729</v>
+        <v>1.026176506126924</v>
       </c>
       <c r="L3">
-        <v>1.008008451025797</v>
+        <v>1.022541949170667</v>
       </c>
       <c r="N3">
-        <v>1.007566438829102</v>
+        <v>1.011939700539833</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9930286474691992</v>
+        <v>1.01935628074051</v>
       </c>
       <c r="D4">
-        <v>1.011972028173811</v>
+        <v>1.024022746659388</v>
       </c>
       <c r="E4">
-        <v>0.9999737887150586</v>
+        <v>1.020472214266565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041755766059843</v>
+        <v>1.027074665774232</v>
       </c>
       <c r="J4">
-        <v>1.012612378043452</v>
+        <v>1.023968341123997</v>
       </c>
       <c r="K4">
-        <v>1.021928077208361</v>
+        <v>1.026537382793471</v>
       </c>
       <c r="L4">
-        <v>1.010072530094193</v>
+        <v>1.022996091964365</v>
       </c>
       <c r="N4">
-        <v>1.008257227431188</v>
+        <v>1.012087124210511</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9943865937530778</v>
+        <v>1.01964322703432</v>
       </c>
       <c r="D5">
-        <v>1.012942433730758</v>
+        <v>1.024227060407146</v>
       </c>
       <c r="E5">
-        <v>1.001066937101661</v>
+        <v>1.020716265174386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042105870568572</v>
+        <v>1.0271217172863</v>
       </c>
       <c r="J5">
-        <v>1.013475692610396</v>
+        <v>1.02415576135278</v>
       </c>
       <c r="K5">
-        <v>1.022666377237639</v>
+        <v>1.026688730941795</v>
       </c>
       <c r="L5">
-        <v>1.010928224767341</v>
+        <v>1.02318686965911</v>
       </c>
       <c r="N5">
-        <v>1.008543322518745</v>
+        <v>1.012149016577574</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9946135249189109</v>
+        <v>1.019691400190348</v>
       </c>
       <c r="D6">
-        <v>1.013104590094602</v>
+        <v>1.024261353406518</v>
       </c>
       <c r="E6">
-        <v>1.001249705262025</v>
+        <v>1.020757242717979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042164138366373</v>
+        <v>1.027129586745684</v>
       </c>
       <c r="J6">
-        <v>1.013619900175119</v>
+        <v>1.024187216228819</v>
       </c>
       <c r="K6">
-        <v>1.022789632760314</v>
+        <v>1.026714121577462</v>
       </c>
       <c r="L6">
-        <v>1.011071205815326</v>
+        <v>1.023218893623843</v>
       </c>
       <c r="N6">
-        <v>1.00859111052552</v>
+        <v>1.012159403617284</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9930468648396484</v>
+        <v>1.019360115359291</v>
       </c>
       <c r="D7">
-        <v>1.011985047258683</v>
+        <v>1.024025477525194</v>
       </c>
       <c r="E7">
-        <v>0.9999884477476015</v>
+        <v>1.02047547526486</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041760478897685</v>
+        <v>1.027075296535397</v>
       </c>
       <c r="J7">
-        <v>1.012623964008686</v>
+        <v>1.023970846367125</v>
       </c>
       <c r="K7">
-        <v>1.021937990105935</v>
+        <v>1.026539406547389</v>
       </c>
       <c r="L7">
-        <v>1.01008401068474</v>
+        <v>1.022998641711242</v>
       </c>
       <c r="N7">
-        <v>1.008261066997284</v>
+        <v>1.0120879515517</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9863378385568118</v>
+        <v>1.017974472060203</v>
       </c>
       <c r="D8">
-        <v>1.007189630833614</v>
+        <v>1.023037797574638</v>
       </c>
       <c r="E8">
-        <v>0.9946006887560184</v>
+        <v>1.019297782960806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039997057648195</v>
+        <v>1.026843933100528</v>
       </c>
       <c r="J8">
-        <v>1.008349912782374</v>
+        <v>1.023064459681765</v>
       </c>
       <c r="K8">
-        <v>1.018273086809575</v>
+        <v>1.025806035095846</v>
       </c>
       <c r="L8">
-        <v>1.005854297296527</v>
+        <v>1.022076803992945</v>
       </c>
       <c r="N8">
-        <v>1.006844533874732</v>
+        <v>1.011788576390626</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9738556039335751</v>
+        <v>1.015529275598634</v>
       </c>
       <c r="D9">
-        <v>0.9982694797809698</v>
+        <v>1.021290802736372</v>
       </c>
       <c r="E9">
-        <v>0.9846326680935753</v>
+        <v>1.017222752757756</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03658705563853</v>
+        <v>1.026419538257652</v>
       </c>
       <c r="J9">
-        <v>1.000366612776427</v>
+        <v>1.021459783479887</v>
       </c>
       <c r="K9">
-        <v>1.011390696003407</v>
+        <v>1.024502122441392</v>
       </c>
       <c r="L9">
-        <v>0.9979800892290049</v>
+        <v>1.020447826147518</v>
       </c>
       <c r="N9">
-        <v>1.004198222603629</v>
+        <v>1.011258342680251</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9650335428339558</v>
+        <v>1.013896755377923</v>
       </c>
       <c r="D10">
-        <v>0.9919723911190628</v>
+        <v>1.020121757219253</v>
       </c>
       <c r="E10">
-        <v>0.9776300261153689</v>
+        <v>1.015839564047093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034094164824105</v>
+        <v>1.026125404197906</v>
       </c>
       <c r="J10">
-        <v>0.9947066035793113</v>
+        <v>1.020384963726528</v>
       </c>
       <c r="K10">
-        <v>1.006488115141856</v>
+        <v>1.023625062954073</v>
       </c>
       <c r="L10">
-        <v>0.9924152752294821</v>
+        <v>1.019358774494864</v>
       </c>
       <c r="N10">
-        <v>1.002321899370313</v>
+        <v>1.010903045832705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.961080667899695</v>
+        <v>1.013189282522085</v>
       </c>
       <c r="D11">
-        <v>0.9891541152005955</v>
+        <v>1.019614515522703</v>
       </c>
       <c r="E11">
-        <v>0.9745035400733976</v>
+        <v>1.015240670516548</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032958647663722</v>
+        <v>1.025995388336931</v>
       </c>
       <c r="J11">
-        <v>0.9921672127063754</v>
+        <v>1.019918361966147</v>
       </c>
       <c r="K11">
-        <v>1.004283509083896</v>
+        <v>1.023243444978351</v>
       </c>
       <c r="L11">
-        <v>0.9899228505707205</v>
+        <v>1.018886477858665</v>
       </c>
       <c r="N11">
-        <v>1.001480081255891</v>
+        <v>1.010748770377534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9595911072098111</v>
+        <v>1.012926407609301</v>
       </c>
       <c r="D12">
-        <v>0.9880927274276247</v>
+        <v>1.0194259480143</v>
       </c>
       <c r="E12">
-        <v>0.9733271656908782</v>
+        <v>1.015018220410156</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032528065798968</v>
+        <v>1.025946696259802</v>
       </c>
       <c r="J12">
-        <v>0.9912098730928044</v>
+        <v>1.019744865348932</v>
       </c>
       <c r="K12">
-        <v>1.003451663630285</v>
+        <v>1.023101418091994</v>
       </c>
       <c r="L12">
-        <v>0.9889838592787844</v>
+        <v>1.018710936230656</v>
       </c>
       <c r="N12">
-        <v>1.00116272312667</v>
+        <v>1.010691401087532</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9599116088934754</v>
+        <v>1.012982799164208</v>
       </c>
       <c r="D13">
-        <v>0.9883210708153191</v>
+        <v>1.019466403407645</v>
       </c>
       <c r="E13">
-        <v>0.9735801985551652</v>
+        <v>1.015065936456463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032620831677141</v>
+        <v>1.025957158898974</v>
       </c>
       <c r="J13">
-        <v>0.9914158770407803</v>
+        <v>1.0197820891055</v>
       </c>
       <c r="K13">
-        <v>1.003630695072085</v>
+        <v>1.023131895870814</v>
       </c>
       <c r="L13">
-        <v>0.9891858859076802</v>
+        <v>1.018748595465838</v>
       </c>
       <c r="N13">
-        <v>1.001231013223897</v>
+        <v>1.010703709914191</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.960957982679137</v>
+        <v>1.013167554999106</v>
       </c>
       <c r="D14">
-        <v>0.9890666822927185</v>
+        <v>1.019598931640151</v>
       </c>
       <c r="E14">
-        <v>0.9744066132076907</v>
+        <v>1.015222282605888</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032923237437846</v>
+        <v>1.025991371560036</v>
       </c>
       <c r="J14">
-        <v>0.9920883710979373</v>
+        <v>1.0199040243526</v>
       </c>
       <c r="K14">
-        <v>1.004215016891169</v>
+        <v>1.023231710640351</v>
       </c>
       <c r="L14">
-        <v>0.9898455069764097</v>
+        <v>1.018871969769017</v>
       </c>
       <c r="N14">
-        <v>1.00145394516396</v>
+        <v>1.010744029530136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9615998257328384</v>
+        <v>1.013281377484603</v>
       </c>
       <c r="D15">
-        <v>0.9895241246331321</v>
+        <v>1.019680566085951</v>
       </c>
       <c r="E15">
-        <v>0.9749137712379364</v>
+        <v>1.01531861337752</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033108381726871</v>
+        <v>1.026012398327462</v>
       </c>
       <c r="J15">
-        <v>0.992500824125774</v>
+        <v>1.019979128837512</v>
       </c>
       <c r="K15">
-        <v>1.004573298842183</v>
+        <v>1.023293173119839</v>
       </c>
       <c r="L15">
-        <v>0.9902501494378996</v>
+        <v>1.018947970223828</v>
       </c>
       <c r="N15">
-        <v>1.001590674030767</v>
+        <v>1.010768863227721</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9652929723226041</v>
+        <v>1.01394369572183</v>
       </c>
       <c r="D16">
-        <v>0.9921574347864808</v>
+        <v>1.020155399367367</v>
       </c>
       <c r="E16">
-        <v>0.9778354596106581</v>
+        <v>1.015879311417341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034168312556945</v>
+        <v>1.026133977035641</v>
       </c>
       <c r="J16">
-        <v>0.9948732026186686</v>
+        <v>1.020415905314029</v>
       </c>
       <c r="K16">
-        <v>1.006632648876014</v>
+        <v>1.023650350825109</v>
       </c>
       <c r="L16">
-        <v>0.99257888164007</v>
+        <v>1.019390103890344</v>
       </c>
       <c r="N16">
-        <v>1.002377127950827</v>
+        <v>1.010913275537874</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9675731142944981</v>
+        <v>1.014358994437534</v>
       </c>
       <c r="D17">
-        <v>0.9937841784949607</v>
+        <v>1.020452972377234</v>
       </c>
       <c r="E17">
-        <v>0.9796423058230412</v>
+        <v>1.016231032323043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034817910415811</v>
+        <v>1.026209529857278</v>
       </c>
       <c r="J17">
-        <v>0.9963370835168311</v>
+        <v>1.020689562996606</v>
       </c>
       <c r="K17">
-        <v>1.007902078466564</v>
+        <v>1.023873905088821</v>
       </c>
       <c r="L17">
-        <v>0.9940169495932768</v>
+        <v>1.019667247239037</v>
       </c>
       <c r="N17">
-        <v>1.002862414022324</v>
+        <v>1.011003746571987</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9688903585770595</v>
+        <v>1.014601175160371</v>
       </c>
       <c r="D18">
-        <v>0.9947242500105044</v>
+        <v>1.020626441566153</v>
       </c>
       <c r="E18">
-        <v>0.980687174534802</v>
+        <v>1.016436188669783</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035191426033204</v>
+        <v>1.026253342459021</v>
       </c>
       <c r="J18">
-        <v>0.9971824516646491</v>
+        <v>1.020849067331857</v>
       </c>
       <c r="K18">
-        <v>1.008634675439841</v>
+        <v>1.024004122433621</v>
       </c>
       <c r="L18">
-        <v>0.9948478130189049</v>
+        <v>1.019828829819604</v>
       </c>
       <c r="N18">
-        <v>1.003142659195396</v>
+        <v>1.011056475346464</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9693373850029864</v>
+        <v>1.01468374305325</v>
       </c>
       <c r="D19">
-        <v>0.9950433237864167</v>
+        <v>1.020685573080916</v>
       </c>
       <c r="E19">
-        <v>0.981041941273438</v>
+        <v>1.016506142269703</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035317882884375</v>
+        <v>1.026268237978448</v>
       </c>
       <c r="J19">
-        <v>0.9974692834051246</v>
+        <v>1.020903434587023</v>
       </c>
       <c r="K19">
-        <v>1.00888316183247</v>
+        <v>1.024048492969857</v>
       </c>
       <c r="L19">
-        <v>0.9951297914300331</v>
+        <v>1.01988391335313</v>
       </c>
       <c r="N19">
-        <v>1.003237745754568</v>
+        <v>1.011074447464716</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9673298019458354</v>
+        <v>1.014314442612227</v>
       </c>
       <c r="D20">
-        <v>0.9936105580282117</v>
+        <v>1.020421055961026</v>
       </c>
       <c r="E20">
-        <v>0.9794493889673298</v>
+        <v>1.016193295635888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034748774195433</v>
+        <v>1.026201450239809</v>
       </c>
       <c r="J20">
-        <v>0.9961809064826275</v>
+        <v>1.020660214070037</v>
       </c>
       <c r="K20">
-        <v>1.007766696281205</v>
+        <v>1.023849938249009</v>
       </c>
       <c r="L20">
-        <v>0.9938634847216288</v>
+        <v>1.019637519666557</v>
       </c>
       <c r="N20">
-        <v>1.002810640281923</v>
+        <v>1.010994044173297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.960650450541939</v>
+        <v>1.013113151445633</v>
       </c>
       <c r="D21">
-        <v>0.9888475267859567</v>
+        <v>1.019559909663692</v>
       </c>
       <c r="E21">
-        <v>0.9741636779128428</v>
+        <v>1.01517624240542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032834432582677</v>
+        <v>1.025981307779303</v>
       </c>
       <c r="J21">
-        <v>0.9918907341908109</v>
+        <v>1.019868122429026</v>
       </c>
       <c r="K21">
-        <v>1.004043312046958</v>
+        <v>1.023202325322354</v>
       </c>
       <c r="L21">
-        <v>0.9896516355785244</v>
+        <v>1.018835642137614</v>
       </c>
       <c r="N21">
-        <v>1.001388428353055</v>
+        <v>1.010732158189002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9563269723172024</v>
+        <v>1.01235734253497</v>
       </c>
       <c r="D22">
-        <v>0.9857681680201623</v>
+        <v>1.019017574185081</v>
       </c>
       <c r="E22">
-        <v>0.9707527205938969</v>
+        <v>1.014536813240581</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031579684569668</v>
+        <v>1.025840590622171</v>
       </c>
       <c r="J22">
-        <v>0.9891113300808995</v>
+        <v>1.019369061842089</v>
       </c>
       <c r="K22">
-        <v>1.001626932479589</v>
+        <v>1.022793542985635</v>
       </c>
       <c r="L22">
-        <v>0.9869267232866835</v>
+        <v>1.018330835654564</v>
       </c>
       <c r="N22">
-        <v>1.000467066557092</v>
+        <v>1.010567126810109</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9586311489380756</v>
+        <v>1.01275805967831</v>
       </c>
       <c r="D23">
-        <v>0.9874089013636363</v>
+        <v>1.019305161506096</v>
       </c>
       <c r="E23">
-        <v>0.972569557060646</v>
+        <v>1.014875783601223</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032249830224282</v>
+        <v>1.025915405820054</v>
       </c>
       <c r="J23">
-        <v>0.99059279992136</v>
+        <v>1.019633721994025</v>
       </c>
       <c r="K23">
-        <v>1.002915282863695</v>
+        <v>1.023010398035835</v>
       </c>
       <c r="L23">
-        <v>0.9883787943337358</v>
+        <v>1.018598503225723</v>
       </c>
       <c r="N23">
-        <v>1.000958164805737</v>
+        <v>1.010654648441559</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9674397835459925</v>
+        <v>1.014334573837054</v>
       </c>
       <c r="D24">
-        <v>0.9936890367200879</v>
+        <v>1.020435477924933</v>
       </c>
       <c r="E24">
-        <v>0.9795365876431269</v>
+        <v>1.016210347209535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034780030487405</v>
+        <v>1.026205101862361</v>
       </c>
       <c r="J24">
-        <v>0.9962515023366191</v>
+        <v>1.020673475943551</v>
       </c>
       <c r="K24">
-        <v>1.007827893841145</v>
+        <v>1.023860768382394</v>
       </c>
       <c r="L24">
-        <v>0.9939328533646946</v>
+        <v>1.019650952494483</v>
       </c>
       <c r="N24">
-        <v>1.002834043283642</v>
+        <v>1.010998428397653</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9771663489504213</v>
+        <v>1.016161836714717</v>
       </c>
       <c r="D25">
-        <v>1.000634622031809</v>
+        <v>1.021743218010405</v>
       </c>
       <c r="E25">
-        <v>0.9872696093254082</v>
+        <v>1.017759170241455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037506062970535</v>
+        <v>1.026531231165477</v>
       </c>
       <c r="J25">
-        <v>1.002487372305314</v>
+        <v>1.02187551911245</v>
       </c>
       <c r="K25">
-        <v>1.013223094292488</v>
+        <v>1.024840589103763</v>
       </c>
       <c r="L25">
-        <v>1.000068816057431</v>
+        <v>1.020869497445361</v>
       </c>
       <c r="N25">
-        <v>1.004901249000323</v>
+        <v>1.011395739790958</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_156/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017617513053672</v>
+        <v>0.9845677981525751</v>
       </c>
       <c r="D2">
-        <v>1.022783080465256</v>
+        <v>1.005924368060509</v>
       </c>
       <c r="E2">
-        <v>1.018994610517231</v>
+        <v>0.9931828004596251</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026783235987421</v>
+        <v>1.039523089409422</v>
       </c>
       <c r="J2">
-        <v>1.022830608662421</v>
+        <v>1.007220089080876</v>
       </c>
       <c r="K2">
-        <v>1.025616445634108</v>
+        <v>1.017301779473816</v>
       </c>
       <c r="L2">
-        <v>1.021839173692664</v>
+        <v>1.004737933897849</v>
       </c>
       <c r="N2">
-        <v>1.011711321753229</v>
+        <v>1.006470046347445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018673465791158</v>
+        <v>0.9897540726762514</v>
       </c>
       <c r="D3">
-        <v>1.023536255111992</v>
+        <v>1.009631602031986</v>
       </c>
       <c r="E3">
-        <v>1.019891707136632</v>
+        <v>0.9973414400262332</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026961500359901</v>
+        <v>1.040901785922763</v>
       </c>
       <c r="J3">
-        <v>1.023521967413908</v>
+        <v>1.010528003285777</v>
       </c>
       <c r="K3">
-        <v>1.026176506126924</v>
+        <v>1.02014271034073</v>
       </c>
       <c r="L3">
-        <v>1.022541949170667</v>
+        <v>1.008008451025797</v>
       </c>
       <c r="N3">
-        <v>1.011939700539833</v>
+        <v>1.007566438829102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01935628074051</v>
+        <v>0.9930286474691995</v>
       </c>
       <c r="D4">
-        <v>1.024022746659388</v>
+        <v>1.011972028173811</v>
       </c>
       <c r="E4">
-        <v>1.020472214266565</v>
+        <v>0.9999737887150587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027074665774232</v>
+        <v>1.041755766059843</v>
       </c>
       <c r="J4">
-        <v>1.023968341123997</v>
+        <v>1.012612378043452</v>
       </c>
       <c r="K4">
-        <v>1.026537382793471</v>
+        <v>1.021928077208361</v>
       </c>
       <c r="L4">
-        <v>1.022996091964365</v>
+        <v>1.010072530094193</v>
       </c>
       <c r="N4">
-        <v>1.012087124210511</v>
+        <v>1.008257227431188</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01964322703432</v>
+        <v>0.9943865937530781</v>
       </c>
       <c r="D5">
-        <v>1.024227060407146</v>
+        <v>1.012942433730759</v>
       </c>
       <c r="E5">
-        <v>1.020716265174386</v>
+        <v>1.001066937101661</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0271217172863</v>
+        <v>1.042105870568572</v>
       </c>
       <c r="J5">
-        <v>1.02415576135278</v>
+        <v>1.013475692610397</v>
       </c>
       <c r="K5">
-        <v>1.026688730941795</v>
+        <v>1.02266637723764</v>
       </c>
       <c r="L5">
-        <v>1.02318686965911</v>
+        <v>1.010928224767341</v>
       </c>
       <c r="N5">
-        <v>1.012149016577574</v>
+        <v>1.008543322518745</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019691400190348</v>
+        <v>0.9946135249189098</v>
       </c>
       <c r="D6">
-        <v>1.024261353406518</v>
+        <v>1.013104590094601</v>
       </c>
       <c r="E6">
-        <v>1.020757242717979</v>
+        <v>1.001249705262023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027129586745684</v>
+        <v>1.042164138366373</v>
       </c>
       <c r="J6">
-        <v>1.024187216228819</v>
+        <v>1.013619900175118</v>
       </c>
       <c r="K6">
-        <v>1.026714121577462</v>
+        <v>1.022789632760313</v>
       </c>
       <c r="L6">
-        <v>1.023218893623843</v>
+        <v>1.011071205815324</v>
       </c>
       <c r="N6">
-        <v>1.012159403617284</v>
+        <v>1.00859111052552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019360115359291</v>
+        <v>0.9930468648396467</v>
       </c>
       <c r="D7">
-        <v>1.024025477525194</v>
+        <v>1.011985047258682</v>
       </c>
       <c r="E7">
-        <v>1.02047547526486</v>
+        <v>0.9999884477475998</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027075296535397</v>
+        <v>1.041760478897684</v>
       </c>
       <c r="J7">
-        <v>1.023970846367125</v>
+        <v>1.012623964008684</v>
       </c>
       <c r="K7">
-        <v>1.026539406547389</v>
+        <v>1.021937990105934</v>
       </c>
       <c r="L7">
-        <v>1.022998641711242</v>
+        <v>1.010084010684738</v>
       </c>
       <c r="N7">
-        <v>1.0120879515517</v>
+        <v>1.008261066997283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017974472060203</v>
+        <v>0.9863378385568116</v>
       </c>
       <c r="D8">
-        <v>1.023037797574638</v>
+        <v>1.007189630833615</v>
       </c>
       <c r="E8">
-        <v>1.019297782960806</v>
+        <v>0.9946006887560181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026843933100528</v>
+        <v>1.039997057648195</v>
       </c>
       <c r="J8">
-        <v>1.023064459681765</v>
+        <v>1.008349912782374</v>
       </c>
       <c r="K8">
-        <v>1.025806035095846</v>
+        <v>1.018273086809575</v>
       </c>
       <c r="L8">
-        <v>1.022076803992945</v>
+        <v>1.005854297296527</v>
       </c>
       <c r="N8">
-        <v>1.011788576390626</v>
+        <v>1.006844533874732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015529275598634</v>
+        <v>0.9738556039335744</v>
       </c>
       <c r="D9">
-        <v>1.021290802736372</v>
+        <v>0.9982694797809691</v>
       </c>
       <c r="E9">
-        <v>1.017222752757756</v>
+        <v>0.9846326680935744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026419538257652</v>
+        <v>1.03658705563853</v>
       </c>
       <c r="J9">
-        <v>1.021459783479887</v>
+        <v>1.000366612776426</v>
       </c>
       <c r="K9">
-        <v>1.024502122441392</v>
+        <v>1.011390696003407</v>
       </c>
       <c r="L9">
-        <v>1.020447826147518</v>
+        <v>0.9979800892290043</v>
       </c>
       <c r="N9">
-        <v>1.011258342680251</v>
+        <v>1.004198222603629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013896755377923</v>
+        <v>0.9650335428339566</v>
       </c>
       <c r="D10">
-        <v>1.020121757219253</v>
+        <v>0.9919723911190633</v>
       </c>
       <c r="E10">
-        <v>1.015839564047093</v>
+        <v>0.9776300261153694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026125404197906</v>
+        <v>1.034094164824105</v>
       </c>
       <c r="J10">
-        <v>1.020384963726528</v>
+        <v>0.994706603579312</v>
       </c>
       <c r="K10">
-        <v>1.023625062954073</v>
+        <v>1.006488115141856</v>
       </c>
       <c r="L10">
-        <v>1.019358774494864</v>
+        <v>0.9924152752294826</v>
       </c>
       <c r="N10">
-        <v>1.010903045832705</v>
+        <v>1.002321899370313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013189282522085</v>
+        <v>0.9610806678996967</v>
       </c>
       <c r="D11">
-        <v>1.019614515522703</v>
+        <v>0.9891541152005967</v>
       </c>
       <c r="E11">
-        <v>1.015240670516548</v>
+        <v>0.9745035400733987</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025995388336931</v>
+        <v>1.032958647663722</v>
       </c>
       <c r="J11">
-        <v>1.019918361966147</v>
+        <v>0.9921672127063768</v>
       </c>
       <c r="K11">
-        <v>1.023243444978351</v>
+        <v>1.004283509083897</v>
       </c>
       <c r="L11">
-        <v>1.018886477858665</v>
+        <v>0.9899228505707217</v>
       </c>
       <c r="N11">
-        <v>1.010748770377534</v>
+        <v>1.001480081255892</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012926407609301</v>
+        <v>0.959591107209811</v>
       </c>
       <c r="D12">
-        <v>1.0194259480143</v>
+        <v>0.9880927274276242</v>
       </c>
       <c r="E12">
-        <v>1.015018220410156</v>
+        <v>0.9733271656908775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025946696259802</v>
+        <v>1.032528065798968</v>
       </c>
       <c r="J12">
-        <v>1.019744865348932</v>
+        <v>0.991209873092804</v>
       </c>
       <c r="K12">
-        <v>1.023101418091994</v>
+        <v>1.003451663630285</v>
       </c>
       <c r="L12">
-        <v>1.018710936230656</v>
+        <v>0.988983859278784</v>
       </c>
       <c r="N12">
-        <v>1.010691401087532</v>
+        <v>1.00116272312667</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012982799164208</v>
+        <v>0.959911608893475</v>
       </c>
       <c r="D13">
-        <v>1.019466403407645</v>
+        <v>0.9883210708153191</v>
       </c>
       <c r="E13">
-        <v>1.015065936456463</v>
+        <v>0.9735801985551651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025957158898974</v>
+        <v>1.032620831677141</v>
       </c>
       <c r="J13">
-        <v>1.0197820891055</v>
+        <v>0.9914158770407802</v>
       </c>
       <c r="K13">
-        <v>1.023131895870814</v>
+        <v>1.003630695072085</v>
       </c>
       <c r="L13">
-        <v>1.018748595465838</v>
+        <v>0.9891858859076802</v>
       </c>
       <c r="N13">
-        <v>1.010703709914191</v>
+        <v>1.001231013223897</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013167554999106</v>
+        <v>0.9609579826791358</v>
       </c>
       <c r="D14">
-        <v>1.019598931640151</v>
+        <v>0.9890666822927179</v>
       </c>
       <c r="E14">
-        <v>1.015222282605888</v>
+        <v>0.9744066132076895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025991371560036</v>
+        <v>1.032923237437845</v>
       </c>
       <c r="J14">
-        <v>1.0199040243526</v>
+        <v>0.9920883710979361</v>
       </c>
       <c r="K14">
-        <v>1.023231710640351</v>
+        <v>1.004215016891168</v>
       </c>
       <c r="L14">
-        <v>1.018871969769017</v>
+        <v>0.9898455069764086</v>
       </c>
       <c r="N14">
-        <v>1.010744029530136</v>
+        <v>1.00145394516396</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013281377484603</v>
+        <v>0.9615998257328373</v>
       </c>
       <c r="D15">
-        <v>1.019680566085951</v>
+        <v>0.9895241246331313</v>
       </c>
       <c r="E15">
-        <v>1.01531861337752</v>
+        <v>0.9749137712379355</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026012398327462</v>
+        <v>1.033108381726871</v>
       </c>
       <c r="J15">
-        <v>1.019979128837512</v>
+        <v>0.9925008241257732</v>
       </c>
       <c r="K15">
-        <v>1.023293173119839</v>
+        <v>1.004573298842182</v>
       </c>
       <c r="L15">
-        <v>1.018947970223828</v>
+        <v>0.9902501494378986</v>
       </c>
       <c r="N15">
-        <v>1.010768863227721</v>
+        <v>1.001590674030767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01394369572183</v>
+        <v>0.965292972322603</v>
       </c>
       <c r="D16">
-        <v>1.020155399367367</v>
+        <v>0.9921574347864804</v>
       </c>
       <c r="E16">
-        <v>1.015879311417341</v>
+        <v>0.9778354596106571</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026133977035641</v>
+        <v>1.034168312556945</v>
       </c>
       <c r="J16">
-        <v>1.020415905314029</v>
+        <v>0.994873202618668</v>
       </c>
       <c r="K16">
-        <v>1.023650350825109</v>
+        <v>1.006632648876014</v>
       </c>
       <c r="L16">
-        <v>1.019390103890344</v>
+        <v>0.9925788816400692</v>
       </c>
       <c r="N16">
-        <v>1.010913275537874</v>
+        <v>1.002377127950827</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014358994437534</v>
+        <v>0.9675731142944979</v>
       </c>
       <c r="D17">
-        <v>1.020452972377234</v>
+        <v>0.9937841784949607</v>
       </c>
       <c r="E17">
-        <v>1.016231032323043</v>
+        <v>0.9796423058230406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026209529857278</v>
+        <v>1.034817910415811</v>
       </c>
       <c r="J17">
-        <v>1.020689562996606</v>
+        <v>0.9963370835168307</v>
       </c>
       <c r="K17">
-        <v>1.023873905088821</v>
+        <v>1.007902078466564</v>
       </c>
       <c r="L17">
-        <v>1.019667247239037</v>
+        <v>0.9940169495932762</v>
       </c>
       <c r="N17">
-        <v>1.011003746571987</v>
+        <v>1.002862414022324</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014601175160371</v>
+        <v>0.9688903585770606</v>
       </c>
       <c r="D18">
-        <v>1.020626441566153</v>
+        <v>0.9947242500105051</v>
       </c>
       <c r="E18">
-        <v>1.016436188669783</v>
+        <v>0.9806871745348023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026253342459021</v>
+        <v>1.035191426033204</v>
       </c>
       <c r="J18">
-        <v>1.020849067331857</v>
+        <v>0.9971824516646499</v>
       </c>
       <c r="K18">
-        <v>1.024004122433621</v>
+        <v>1.008634675439842</v>
       </c>
       <c r="L18">
-        <v>1.019828829819604</v>
+        <v>0.9948478130189053</v>
       </c>
       <c r="N18">
-        <v>1.011056475346464</v>
+        <v>1.003142659195397</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01468374305325</v>
+        <v>0.9693373850029873</v>
       </c>
       <c r="D19">
-        <v>1.020685573080916</v>
+        <v>0.9950433237864176</v>
       </c>
       <c r="E19">
-        <v>1.016506142269703</v>
+        <v>0.9810419412734386</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026268237978448</v>
+        <v>1.035317882884376</v>
       </c>
       <c r="J19">
-        <v>1.020903434587023</v>
+        <v>0.9974692834051254</v>
       </c>
       <c r="K19">
-        <v>1.024048492969857</v>
+        <v>1.008883161832471</v>
       </c>
       <c r="L19">
-        <v>1.01988391335313</v>
+        <v>0.9951297914300338</v>
       </c>
       <c r="N19">
-        <v>1.011074447464716</v>
+        <v>1.003237745754568</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014314442612227</v>
+        <v>0.9673298019458352</v>
       </c>
       <c r="D20">
-        <v>1.020421055961026</v>
+        <v>0.9936105580282117</v>
       </c>
       <c r="E20">
-        <v>1.016193295635888</v>
+        <v>0.9794493889673294</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026201450239809</v>
+        <v>1.034748774195433</v>
       </c>
       <c r="J20">
-        <v>1.020660214070037</v>
+        <v>0.9961809064826272</v>
       </c>
       <c r="K20">
-        <v>1.023849938249009</v>
+        <v>1.007766696281205</v>
       </c>
       <c r="L20">
-        <v>1.019637519666557</v>
+        <v>0.9938634847216284</v>
       </c>
       <c r="N20">
-        <v>1.010994044173297</v>
+        <v>1.002810640281923</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013113151445633</v>
+        <v>0.9606504505419398</v>
       </c>
       <c r="D21">
-        <v>1.019559909663692</v>
+        <v>0.9888475267859574</v>
       </c>
       <c r="E21">
-        <v>1.01517624240542</v>
+        <v>0.9741636779128435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025981307779303</v>
+        <v>1.032834432582677</v>
       </c>
       <c r="J21">
-        <v>1.019868122429026</v>
+        <v>0.9918907341908116</v>
       </c>
       <c r="K21">
-        <v>1.023202325322354</v>
+        <v>1.004043312046958</v>
       </c>
       <c r="L21">
-        <v>1.018835642137614</v>
+        <v>0.9896516355785251</v>
       </c>
       <c r="N21">
-        <v>1.010732158189002</v>
+        <v>1.001388428353055</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01235734253497</v>
+        <v>0.9563269723172027</v>
       </c>
       <c r="D22">
-        <v>1.019017574185081</v>
+        <v>0.9857681680201626</v>
       </c>
       <c r="E22">
-        <v>1.014536813240581</v>
+        <v>0.9707527205938968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025840590622171</v>
+        <v>1.031579684569668</v>
       </c>
       <c r="J22">
-        <v>1.019369061842089</v>
+        <v>0.9891113300808995</v>
       </c>
       <c r="K22">
-        <v>1.022793542985635</v>
+        <v>1.00162693247959</v>
       </c>
       <c r="L22">
-        <v>1.018330835654564</v>
+        <v>0.9869267232866835</v>
       </c>
       <c r="N22">
-        <v>1.010567126810109</v>
+        <v>1.000467066557092</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01275805967831</v>
+        <v>0.9586311489380751</v>
       </c>
       <c r="D23">
-        <v>1.019305161506096</v>
+        <v>0.9874089013636361</v>
       </c>
       <c r="E23">
-        <v>1.014875783601223</v>
+        <v>0.9725695570606455</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025915405820054</v>
+        <v>1.032249830224282</v>
       </c>
       <c r="J23">
-        <v>1.019633721994025</v>
+        <v>0.9905927999213597</v>
       </c>
       <c r="K23">
-        <v>1.023010398035835</v>
+        <v>1.002915282863695</v>
       </c>
       <c r="L23">
-        <v>1.018598503225723</v>
+        <v>0.9883787943337354</v>
       </c>
       <c r="N23">
-        <v>1.010654648441559</v>
+        <v>1.000958164805736</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014334573837054</v>
+        <v>0.9674397835459916</v>
       </c>
       <c r="D24">
-        <v>1.020435477924933</v>
+        <v>0.9936890367200869</v>
       </c>
       <c r="E24">
-        <v>1.016210347209535</v>
+        <v>0.9795365876431255</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026205101862361</v>
+        <v>1.034780030487405</v>
       </c>
       <c r="J24">
-        <v>1.020673475943551</v>
+        <v>0.9962515023366181</v>
       </c>
       <c r="K24">
-        <v>1.023860768382394</v>
+        <v>1.007827893841144</v>
       </c>
       <c r="L24">
-        <v>1.019650952494483</v>
+        <v>0.9939328533646934</v>
       </c>
       <c r="N24">
-        <v>1.010998428397653</v>
+        <v>1.002834043283642</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016161836714717</v>
+        <v>0.9771663489504206</v>
       </c>
       <c r="D25">
-        <v>1.021743218010405</v>
+        <v>1.000634622031809</v>
       </c>
       <c r="E25">
-        <v>1.017759170241455</v>
+        <v>0.9872696093254073</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026531231165477</v>
+        <v>1.037506062970534</v>
       </c>
       <c r="J25">
-        <v>1.02187551911245</v>
+        <v>1.002487372305313</v>
       </c>
       <c r="K25">
-        <v>1.024840589103763</v>
+        <v>1.013223094292488</v>
       </c>
       <c r="L25">
-        <v>1.020869497445361</v>
+        <v>1.00006881605743</v>
       </c>
       <c r="N25">
-        <v>1.011395739790958</v>
+        <v>1.004901249000323</v>
       </c>
     </row>
   </sheetData>
